--- a/log/log_201608040125_孙天越.xlsx
+++ b/log/log_201608040125_孙天越.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\workspace\TANWANLANYUE\src\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\workspace\TANWANLANYUE\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CF2540B8-11C2-4BAD-B142-DDECF3606F13}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{408E7082-C5B5-4432-B060-4C9BDFC40DAF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="96" yWindow="108" windowWidth="13656" windowHeight="6888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>修改测试文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -635,6 +647,30 @@
       </c>
       <c r="B13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>43274</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>43276</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>335476</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
